--- a/data_preproc/min_max.xlsx
+++ b/data_preproc/min_max.xlsx
@@ -7,7 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MP_min" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSI_min" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TSI_min" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MP_max" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PSI_max" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TSI_max" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +55,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,409 +439,575 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CPGE</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Filière</t>
+          <t>GL</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>2IA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>2SCL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IDSIT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SSE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IDF</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BI&amp;A</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>2IA</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>160</v>
       </c>
       <c r="C2" t="n">
         <v>241</v>
       </c>
       <c r="D2" t="n">
+        <v>653</v>
+      </c>
+      <c r="E2" t="n">
+        <v>248</v>
+      </c>
+      <c r="F2" t="n">
+        <v>276</v>
+      </c>
+      <c r="G2" t="n">
+        <v>111</v>
+      </c>
+      <c r="H2" t="n">
+        <v>911</v>
+      </c>
+      <c r="I2" t="n">
+        <v>257</v>
+      </c>
+      <c r="J2" t="n">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2IA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2SCL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IDSIT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SSE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IDF</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BI&amp;A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>130</v>
+      </c>
+      <c r="E2" t="n">
+        <v>114</v>
+      </c>
+      <c r="F2" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2" t="n">
+        <v>101</v>
+      </c>
+      <c r="H2" t="n">
+        <v>155</v>
+      </c>
+      <c r="I2" t="n">
+        <v>47</v>
+      </c>
+      <c r="J2" t="n">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2IA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2SCL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IDSIT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SSE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IDF</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BI&amp;A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C2" t="n">
+        <v>220</v>
+      </c>
+      <c r="D2" t="n">
+        <v>271</v>
+      </c>
+      <c r="E2" t="n">
+        <v>153</v>
+      </c>
+      <c r="F2" t="n">
+        <v>178</v>
+      </c>
+      <c r="G2" t="n">
+        <v>93</v>
+      </c>
+      <c r="H2" t="n">
+        <v>148</v>
+      </c>
+      <c r="I2" t="n">
+        <v>190</v>
+      </c>
+      <c r="J2" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2IA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2SCL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IDSIT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SSE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IDF</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BI&amp;A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>860</v>
+      </c>
+      <c r="C2" t="n">
         <v>784</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="D2" t="n">
+        <v>1134</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1035</v>
+      </c>
+      <c r="F2" t="n">
+        <v>680</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706</v>
+      </c>
+      <c r="H2" t="n">
+        <v>974</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1049</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2IA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>2SCL</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>653</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IDSIT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SSE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IDF</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BI&amp;A</t>
         </is>
       </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>137</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>259</v>
+      </c>
+      <c r="E2" t="n">
+        <v>154</v>
+      </c>
+      <c r="F2" t="n">
+        <v>142</v>
+      </c>
+      <c r="G2" t="n">
+        <v>127</v>
+      </c>
+      <c r="H2" t="n">
+        <v>203</v>
+      </c>
+      <c r="I2" t="n">
+        <v>47</v>
+      </c>
+      <c r="J2" t="n">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2IA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2SCL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IDSIT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SSI</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SSE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IDF</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BI&amp;A</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>234</v>
+      </c>
+      <c r="C2" t="n">
+        <v>220</v>
+      </c>
+      <c r="D2" t="n">
+        <v>291</v>
+      </c>
+      <c r="E2" t="n">
+        <v>278</v>
+      </c>
+      <c r="F2" t="n">
+        <v>246</v>
+      </c>
+      <c r="G2" t="n">
+        <v>214</v>
+      </c>
+      <c r="H2" t="n">
+        <v>280</v>
+      </c>
+      <c r="I2" t="n">
+        <v>281</v>
+      </c>
+      <c r="J2" t="n">
         <v>228</v>
       </c>
-      <c r="D4" t="n">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>276</v>
-      </c>
-      <c r="D5" t="n">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>GL</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>160</v>
-      </c>
-      <c r="D6" t="n">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>IDF</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>257</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>IDSIT</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>248</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>SSE</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>911</v>
-      </c>
-      <c r="D9" t="n">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>SSI</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>111</v>
-      </c>
-      <c r="D10" t="n">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>PSI</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>2SCL</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>130</v>
-      </c>
-      <c r="D11" t="n">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>BI&amp;A</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>62</v>
-      </c>
-      <c r="D12" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>81</v>
-      </c>
-      <c r="D13" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>GL</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>41</v>
-      </c>
-      <c r="D14" t="n">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>IDF</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>47</v>
-      </c>
-      <c r="D15" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>IDSIT</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>114</v>
-      </c>
-      <c r="D16" t="n">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>SSE</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>155</v>
-      </c>
-      <c r="D17" t="n">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>SSI</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>101</v>
-      </c>
-      <c r="D18" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>TSI</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>2IA</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>220</v>
-      </c>
-      <c r="D19" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>2SCL</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>271</v>
-      </c>
-      <c r="D20" t="n">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>BI&amp;A</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>98</v>
-      </c>
-      <c r="D21" t="n">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>GD</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>178</v>
-      </c>
-      <c r="D22" t="n">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>GL</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>41</v>
-      </c>
-      <c r="D23" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>IDF</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>190</v>
-      </c>
-      <c r="D24" t="n">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>IDSIT</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>153</v>
-      </c>
-      <c r="D25" t="n">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>SSE</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>148</v>
-      </c>
-      <c r="D26" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>SSI</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>93</v>
-      </c>
-      <c r="D27" t="n">
-        <v>214</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A19:A27"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>